--- a/CATALOGO_CLASE.xlsx
+++ b/CATALOGO_CLASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santposa\Documents\prueba_diseñador_procesos_mdp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbarco\Documents\Prueba Tecnica DP 2\Prueba-tecnica-DP-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E61F1F-7D9A-4109-8EF3-DFA4BE10F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7023C29-54E8-48C6-9C81-6DCD3E982498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06DA44B6-72E3-412C-BAB3-CC08BE72F538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06DA44B6-72E3-412C-BAB3-CC08BE72F538}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_CLASE" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>MEGABUS PEREIRA MASTERDEBIT</t>
   </si>
   <si>
-    <t>CÍVICA MASTERDEBIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maestro Conavi           </t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>PERSONALIZADA BANCONAUTAS</t>
+  </si>
+  <si>
+    <t>CIVICA MASTERDEBIT</t>
   </si>
 </sst>
 </file>
@@ -206,15 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,349 +533,349 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>133</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>78</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>91</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>93</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>104</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>106</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>109</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>112</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>113</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>114</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>115</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>116</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>120</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>120</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>117</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>118</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>119</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>134</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>134</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
